--- a/example_data/EPA/label_corrected/083529-00049-20170126_2018-12-08_191007.xlsx
+++ b/example_data/EPA/label_corrected/083529-00049-20170126_2018-12-08_191007.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -655,7 +655,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -988,7 +988,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
